--- a/biology/Biochimie/Sédoheptulose-bisphosphatase/Sédoheptulose-bisphosphatase.xlsx
+++ b/biology/Biochimie/Sédoheptulose-bisphosphatase/Sédoheptulose-bisphosphatase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9doheptulose-bisphosphatase</t>
+          <t>Sédoheptulose-bisphosphatase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sédoheptulose-bisphosphatase, ou sédoheptulose-1,7-bisphosphatase, est une hydrolase qui catalyse la réaction :
 sédoheptulose-1,7-bisphosphate + H2O  
         ⇌
     {\displaystyle \rightleftharpoons }
   sédoheptulose-7-phosphate + phosphate.
-Cette enzyme intervient dans le cycle de Calvin. Il s'agit d'une protéine homodimérique, constituée par conséquent de deux sous-unité identiques[1]. Sa taille dépend des espèces, elle est par exemple de 92 kDa (deux sous-unités de 46 kDa) dans les feuilles de concombres[2]. Le domaine fonctionnel contrôlant l'activité de la sédoheptulose-bisphosphatase contient un pont disulfure entre deux résidus de cystéine[3]. De plus, elle a besoin de cations de magnésium Mg2+ pour être active[4].
-La sédoheptulose-bisphosphatase est liée à la membrane des thylakoïdes du côté du stroma des chloroplastes. Certaines études ont suggéré qu'elle fasse partie d'un complexe enzymatique plus gros d'environ 900 kDa avec d'autres enzymes photosynthétiques[5].
+Cette enzyme intervient dans le cycle de Calvin. Il s'agit d'une protéine homodimérique, constituée par conséquent de deux sous-unité identiques. Sa taille dépend des espèces, elle est par exemple de 92 kDa (deux sous-unités de 46 kDa) dans les feuilles de concombres. Le domaine fonctionnel contrôlant l'activité de la sédoheptulose-bisphosphatase contient un pont disulfure entre deux résidus de cystéine. De plus, elle a besoin de cations de magnésium Mg2+ pour être active.
+La sédoheptulose-bisphosphatase est liée à la membrane des thylakoïdes du côté du stroma des chloroplastes. Certaines études ont suggéré qu'elle fasse partie d'un complexe enzymatique plus gros d'environ 900 kDa avec d'autres enzymes photosynthétiques.
 </t>
         </is>
       </c>
